--- a/data/countries/cayman_islands.xlsx
+++ b/data/countries/cayman_islands.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/home/BlenmanSandbox-CC1407-MEDCCC/AP 2023 Spr/data/countries/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreipascu/Documents/Yale University/Years/Senior/Spring/CSEC 491/local/data/countries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{596852C8-A64B-9642-81C5-D7E80E1CDB46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF3F913-6B5A-0046-962E-4ACC692E6393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32620" yWindow="880" windowWidth="18000" windowHeight="26400" xr2:uid="{A00892F2-77B1-0143-89C4-5296CC556B66}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16560" activeTab="1" xr2:uid="{A00892F2-77B1-0143-89C4-5296CC556B66}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,20 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
   <si>
     <t>General</t>
   </si>
@@ -151,7 +159,7 @@
     <t>Cayman Islands</t>
   </si>
   <si>
-    <t>2020 (yearly)</t>
+    <t>2020-2022 (yearly)</t>
   </si>
 </sst>
 </file>
@@ -596,8 +604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F74CC475-90E8-AE41-9E12-080CDE43B3C3}">
   <dimension ref="B1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -634,7 +642,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="4">
-        <v>45032</v>
+        <v>45033</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -806,8 +814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7D00AED-5EBD-974C-A23B-D47D16AC0D47}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1140,14 +1148,58 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
+      <c r="A13" s="11">
+        <v>2021</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13">
+        <v>8480</v>
+      </c>
+      <c r="G13">
+        <v>9</v>
+      </c>
+      <c r="H13">
+        <f>G13/F13</f>
+        <v>1.0613207547169811E-3</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D14" s="14"/>
+      <c r="A14" s="11">
+        <v>2022</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14">
+        <v>22654</v>
+      </c>
+      <c r="G14">
+        <v>26</v>
+      </c>
+      <c r="H14">
+        <f>G14/F14</f>
+        <v>1.1477001853977223E-3</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C15" s="14"/>
